--- a/excel/example.xlsx
+++ b/excel/example.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
   <si>
     <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -320,6 +320,14 @@
   </si>
   <si>
     <t>1-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MixKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -654,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G26" activeCellId="1" sqref="F6 G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -819,63 +827,48 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E7" s="1" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1">
-        <v>11</v>
-      </c>
-      <c r="F9" s="1">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2.1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="1">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>2.1</v>
@@ -883,25 +876,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1">
         <v>1.1000000000000001</v>
@@ -912,30 +905,59 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="I12" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I13" s="1">
         <v>2.1</v>
       </c>
     </row>
@@ -948,10 +970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1081,95 +1103,100 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>70</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>73</v>
       </c>
     </row>

--- a/excel/example.xlsx
+++ b/excel/example.xlsx
@@ -665,7 +665,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" activeCellId="1" sqref="F6 G26"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
